--- a/data/large_context_data.xlsx
+++ b/data/large_context_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vidhyasathy/srivatsanpython/sector/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F9AAB03-D980-EE4B-AEFD-1E6C134A3B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903CE859-6807-D14C-993E-12FD7EFAA9AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
